--- a/jpcore-r4/feature/kohe-dotPackage-test/observations-summary.xlsx
+++ b/jpcore-r4/feature/kohe-dotPackage-test/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
   <si>
     <t>Profile</t>
   </si>
@@ -53,10 +53,7 @@
     <t>JP Core Observation BodyMeasurement Profile</t>
   </si>
   <si>
-    <t>null#body-measurement</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ObservationBodyMeasurementCategory_VS (preferred)</t>
+    <t>JP Core Simple Observation Category CodeSystem#body-measurement</t>
   </si>
   <si>
     <t/>
@@ -329,200 +326,200 @@
         <v>14</v>
       </c>
       <c r="E2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="G2" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="H2" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="H2" t="s" s="2">
+      <c r="I2" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="I2" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="J2" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="C3" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="D3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="D3" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s" s="2">
+      <c r="G3" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="H3" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>25</v>
-      </c>
       <c r="I3" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="C4" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="D4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="D4" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>29</v>
-      </c>
       <c r="G4" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="C5" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="D5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="D5" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s" s="2">
+      <c r="F5" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="F5" t="s" s="2">
-        <v>34</v>
-      </c>
       <c r="G5" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="I5" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="I5" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="C6" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="D6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="D6" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="G6" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="C7" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="D7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D7" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="G7" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="H7" t="s" s="2">
+      <c r="I7" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="I7" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="J7" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
